--- a/BackTest/2020-01-14 BackTest EOS.xlsx
+++ b/BackTest/2020-01-14 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7020.168651990003</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3644.375651990003</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>29913.01965199001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>13982.95860310001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12456.0932031</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6042.864903100005</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1934.030103100005</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-772.0460968999946</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-17627.1881969</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-12130.9902969</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-10643.3330969</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-10643.3330969</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-7225.0957969</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-7855.4652969</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-6956.4652969</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6956.4652969</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-6983.7121969</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5998.13384255</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6648.99084255</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5066.14954255</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4854.355342549999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4854.355342549999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5886.39004255</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7274.208242549999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9654.518842549998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-13257.51884255</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-8552.973842549998</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-13191.13454255</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-14384.98754255</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-13718.83614255</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-18002.02464255</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-18023.47424255</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-18806.60424255</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-17969.74874255</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-17969.74874255</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-17969.74874255</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-17445.94304255</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-17443.94304255</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17492.49664255</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-20809.9983963</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-20772.4471963</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-21577.7615963</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-18913.8068963</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-25226.0350963</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-25434.2144963</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-24771.7149963</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-24771.9149963</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-23781.4393963</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-23264.7193963</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-18264.7193963</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-13273.33249629999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-14831.85849629999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16401.92979629999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-12135.99919629999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-12135.99919629999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-9769.784296299993</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-10528.45729629999</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-9029.616896299993</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-9079.616896299993</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-8310.797896299993</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-6389.025396299993</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6391.025396299993</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6387.833596299994</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-11254.22691851999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-12503.25651851999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-15530.83831851999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-21417.14171851999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-21417.14171851999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-21395.41701851999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-21483.52911851999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-20754.17941157999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-20256.60511157999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-13380.02364491999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-13469.86954491999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-13350.08504492</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-16670.48904492</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-16670.48904492</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-16670.48904492</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-16081.32844492</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-20021.32844492</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-19727.17464492</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-19727.17464492</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-19642.40804492</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-19664.45084492</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-20595.62294492</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-20595.62294492</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-19845.62294492</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-19619.50094492</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-19165.86974492</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-19166.06974492</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-22079.20804492</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-22365.16524492</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-21477.93124492</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-24174.13944492</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-23588.37954492</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-28078.54304492</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-28578.44724492</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-28666.54584492</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-27292.51344492</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-26806.56124492</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-26806.76124492</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-27574.83004492</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-27671.70564492</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-24696.80934492</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-24696.80934492</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-24718.70334492</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-22341.79944492</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-22301.89494492</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-22301.89494492</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-21309.8224136</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-25295.4760136</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-25276.4605136</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-19324.4962136</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-19324.6962136</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-20352.5203136</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-19138.6877136</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-19139.0877136</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-17501.0034136</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-17501.2034136</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-17817.3134136</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-17817.3134136</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-17113.9986136</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-17106.4354136</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-17106.4354136</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-17100.2344136</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-19824.3173136</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-19282.5352136</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-18912.5086136</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-18912.5086136</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-18912.5086136</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-19044.5611136</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-18639.7639136</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-18651.6679136</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-20000.8870136</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-20428.3633136</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-20453.5979136</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-22855.8630136</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-22855.8630136</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-22855.8630136</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-29565.9717136</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-29416.4226136</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-29416.4226136</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-23136.5837136</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-23689.0087136</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-23689.0087136</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-23484.6809136</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-23484.6809136</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-22795.8009136</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-22982.3229136</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-21902.6589136</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-21635.2702136</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-23310.46181360001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-24441.25511360001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-24201.78731360001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-25430.20271360001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-23144.94841360001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-22798.81431360001</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-22985.38631360001</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-21607.11571360001</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-20238.67771360001</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-18595.37501638001</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-17345.37501638001</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-17471.58111638001</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-17558.18841638001</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-16953.25681638001</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-17139.85231638001</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-28326.54271638001</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-29895.07901638001</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-29965.07901638001</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-29865.07901638001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-29865.30001638001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-27644.93741638001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-27725.17441638001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-26907.50691638001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-26813.40691638001</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-26411.76141638001</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-24955.26581638002</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-19132.82761638001</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-18875.52271638002</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-8886.293813600016</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-9178.698813600016</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-8268.336795290017</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-8368.336795290017</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>23912.54423750998</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>33301.89723750998</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>21818.68359503998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>22012.90049503998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>22206.12009503998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>21313.79249503998</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>21283.79249503998</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>21284.15104857998</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>21283.96574857998</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>20303.54044857998</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>20185.42594857998</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>26606.33254857998</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>26606.33254857998</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>25836.45699503998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>26678.71169503998</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>28248.50456600998</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>27992.75096600998</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>25636.41738658998</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>25019.67588658998</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>25252.27572187998</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>27663.28532187998</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>29236.81422187998</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>32380.50002187998</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>32380.50002187998</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>39827.83852187998</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>38903.45332187998</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>36509.94012187998</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>34284.22042187998</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>34100.41802187998</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>33763.02212187998</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>31558.22732187998</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>31558.22732187998</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>31558.22732187998</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>29354.15352187998</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>30472.70582187998</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>30331.93842187998</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>30381.93842187998</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>34924.99032187997</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>34924.99032187997</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>33535.59882187998</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>31287.00142187998</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>32723.03652187998</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>32723.03652187998</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>32723.03652187998</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>20925.79082187998</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>16985.12552187997</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>17299.13422187997</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>6201.019321879972</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>16529.35362187997</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>18418.25872187997</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>6777.502521879971</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>3797.933521879971</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>6401.604021879972</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>6397.479221879972</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>5307.978621879972</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>11724.44022187997</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>11937.29572187997</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>12280.18402187997</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>12280.18402187997</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>9595.987021879972</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>10198.68922187997</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>10198.68922187997</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>8264.232221879971</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>8272.382221879971</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>2054.518821879971</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>1720.222221879971</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>1720.222221879971</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>2012.910721879971</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>1733.346021879971</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-12138.43047812003</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-12138.43047812003</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-12138.43047812003</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-12138.43047812003</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3403.820378120028</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-2333.011978120028</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-5023.420678120028</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-8763.068978120027</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-8763.068978120027</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-8438.770878120027</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-8434.370878120028</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-8082.013017450027</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -19657,11 +19657,17 @@
         <v>-2847049.78560489</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3499</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +19700,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19733,17 @@
         <v>-2845256.33210489</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3499</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +19776,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +19813,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +19850,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +19887,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +19924,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +19961,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +19998,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +20035,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +20072,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +20109,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20146,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20183,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20220,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20257,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20294,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20331,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +20368,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20405,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20442,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20479,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20516,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20553,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20590,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20627,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20664,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20701,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20738,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20775,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20812,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +20845,17 @@
         <v>-2853687.60258718</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>3497</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20888,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +20925,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +20962,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +20999,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +21036,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21073,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21106,17 @@
         <v>-2863250.10098718</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3489</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21145,17 @@
         <v>-2863250.10098718</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3491</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21184,17 @@
         <v>-2862477.13998718</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>3491</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21223,17 @@
         <v>-2862477.13998718</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3497</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21262,17 @@
         <v>-2862477.13998718</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3497</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21305,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21342,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21379,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21412,17 @@
         <v>-2859527.05994434</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3498</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21455,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21492,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21529,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21566,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +21603,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21640,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21677,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +21714,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +21751,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +21788,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21821,17 @@
         <v>-2863958.028644341</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>3494</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21860,17 @@
         <v>-2863958.028644341</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3500</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +21899,17 @@
         <v>-2863175.66824434</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3500</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +21942,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +21979,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +22016,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +22053,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22090,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +22127,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21872,7 +22164,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +22201,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +22238,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +22275,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +22312,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +22349,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +22386,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +22423,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +22460,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +22497,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +22534,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +22571,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +22608,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +22645,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22682,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +22719,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +22756,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +22793,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +22830,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +22867,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +22904,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,7 +22941,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +22978,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +23015,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22664,7 +23052,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +23089,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +23122,17 @@
         <v>-2856843.28967999</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3497</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,11 +23161,17 @@
         <v>-2857116.58887999</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>3498</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +23200,17 @@
         <v>-2857116.58887999</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>3496</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22825,11 +23239,17 @@
         <v>-2857116.58887999</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>3496</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +23282,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +23315,17 @@
         <v>-2860093.67267999</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3492</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22924,11 +23354,17 @@
         <v>-2860093.67267999</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>3492</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22957,11 +23393,17 @@
         <v>-2861963.12587999</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>3492</v>
+      </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +23432,17 @@
         <v>-2861800.50727999</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>3490</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23023,11 +23471,17 @@
         <v>-2862267.60727999</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>3495</v>
+      </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23510,17 @@
         <v>-2863103.44247999</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>3490</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23089,11 +23549,17 @@
         <v>-2864210.40487999</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>3489</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23122,11 +23588,17 @@
         <v>-2860365.42667999</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>3483</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23155,11 +23627,17 @@
         <v>-2862112.70907999</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>3486</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23188,11 +23666,17 @@
         <v>-2863698.07287999</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3481</v>
+      </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23221,11 +23705,17 @@
         <v>-2872983.10747999</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>3479</v>
+      </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23744,17 @@
         <v>-2876150.86037999</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3477</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23783,17 @@
         <v>-2875341.78447999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3476</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23822,17 @@
         <v>-2880554.06287999</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3486</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +23861,17 @@
         <v>-2880554.06287999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>3483</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +23900,17 @@
         <v>-2880952.67967999</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3483</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23939,17 @@
         <v>-2884343.89707999</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3480</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23978,17 @@
         <v>-2883523.83507999</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3479</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +24017,17 @@
         <v>-2883634.12157999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3483</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +24056,17 @@
         <v>-2884991.77887999</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3480</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +24095,17 @@
         <v>-2888217.677879991</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3477</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +24134,17 @@
         <v>-2886756.88957999</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3476</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +24173,17 @@
         <v>-2886769.069579991</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3484</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +24212,17 @@
         <v>-2886769.069579991</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3482</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23683,11 +24251,17 @@
         <v>-2886395.718179991</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3482</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23716,11 +24290,17 @@
         <v>-2884376.803579991</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3485</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +24329,17 @@
         <v>-2879441.390679991</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3487</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23782,11 +24368,17 @@
         <v>-2889975.334736151</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3490</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23815,11 +24407,17 @@
         <v>-2889142.62529231</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3487</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23848,11 +24446,17 @@
         <v>-2890572.061592311</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>3498</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23881,11 +24485,17 @@
         <v>-2890553.051592311</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>3497</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23914,11 +24524,17 @@
         <v>-2889912.134792311</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>3498</v>
+      </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24567,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24604,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24641,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24678,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24715,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24752,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24789,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24826,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24863,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24900,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24937,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24974,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +25011,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +25048,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +25085,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +25122,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +25159,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +25196,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +25233,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +25270,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +25303,17 @@
         <v>-2885949.01255641</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>3487</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +25342,17 @@
         <v>-2885637.44535441</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>3488</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +25381,17 @@
         <v>-2885665.20945441</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>3490</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +25420,17 @@
         <v>-2888489.68265441</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>3486</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24739,11 +25459,17 @@
         <v>-2888310.79975441</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>3480</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +25498,17 @@
         <v>-2888310.79975441</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>3482</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +25537,17 @@
         <v>-2887065.56185441</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>3482</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +25576,17 @@
         <v>-2891698.47625441</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>3488</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25615,17 @@
         <v>-2898691.36105441</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>3487</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25654,17 @@
         <v>-2898686.12105441</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>3484</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25693,17 @@
         <v>-2900505.52945441</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>3486</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25732,17 @@
         <v>-2900505.52945441</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>3485</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,11 +25771,17 @@
         <v>-2901602.06675441</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>3485</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25810,17 @@
         <v>-2895211.04609989</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>3480</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25849,17 @@
         <v>-2897962.97239989</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3482</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25888,17 @@
         <v>-2898150.92099989</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>3479</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25927,17 @@
         <v>-2903120.66779989</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>3478</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25966,17 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3477</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,7 +26005,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>3478</v>
@@ -25209,7 +26013,7 @@
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L752" t="n">
@@ -25240,7 +26044,7 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>3478</v>
@@ -25279,7 +26083,7 @@
         <v>-2903916.810699889</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>3478</v>
@@ -25318,7 +26122,7 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>3476</v>
@@ -25357,7 +26161,7 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>3478</v>
@@ -25396,7 +26200,7 @@
         <v>-2907534.114699889</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>3478</v>
@@ -25435,7 +26239,7 @@
         <v>-2918271.088999889</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>3475</v>
@@ -25474,7 +26278,7 @@
         <v>-2911459.323499889</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>3472</v>
@@ -25513,7 +26317,7 @@
         <v>-2909119.105199889</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>3479</v>
@@ -25552,7 +26356,7 @@
         <v>-2908106.977499889</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>3481</v>
@@ -25591,7 +26395,7 @@
         <v>-2908114.194899889</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>3484</v>
@@ -25630,7 +26434,7 @@
         <v>-2907945.793299889</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>3480</v>
@@ -25669,7 +26473,7 @@
         <v>-2907915.793299889</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>3481</v>
@@ -25708,7 +26512,7 @@
         <v>-2908452.401699889</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>3484</v>
@@ -25747,7 +26551,7 @@
         <v>-2908452.401699889</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>3482</v>
@@ -25786,7 +26590,7 @@
         <v>-2907054.070899889</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>3482</v>
@@ -25825,7 +26629,7 @@
         <v>-2903139.955199889</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>3488</v>
@@ -25864,7 +26668,7 @@
         <v>-2903139.955199889</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>3494</v>
@@ -25903,7 +26707,7 @@
         <v>-2901061.755199889</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>3494</v>
@@ -25942,9 +26746,11 @@
         <v>-2902332.860799889</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>3499</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -27015,9 +27821,11 @@
         <v>-2893819.889688609</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>3504</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27089,9 +27897,11 @@
         <v>-2893380.085088609</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>3505</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27422,9 +28232,11 @@
         <v>-2905606.724588609</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>3496</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27459,9 +28271,11 @@
         <v>-2905492.266188609</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>3491</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27496,9 +28310,11 @@
         <v>-2911376.565888609</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>3492</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27533,9 +28349,11 @@
         <v>-2910995.759088609</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>3486</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27570,9 +28388,11 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3489</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27607,9 +28427,11 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>3488</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27644,9 +28466,11 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3488</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -27681,9 +28505,11 @@
         <v>-2913157.901288609</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3488</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -27718,9 +28544,11 @@
         <v>-2912651.407988609</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3488</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -27755,9 +28583,11 @@
         <v>-2912651.407988609</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3498</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -27792,9 +28622,11 @@
         <v>-2912651.407988609</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>3498</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -27829,9 +28661,11 @@
         <v>-2900761.316088609</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3498</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -29457,9 +30291,11 @@
         <v>-3013877.36735846</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3514</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29494,9 +30330,11 @@
         <v>-3026105.36105846</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3513</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29531,9 +30369,11 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3511</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29568,9 +30408,11 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3510</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29605,9 +30447,11 @@
         <v>-3038257.59538359</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3510</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29827,9 +30671,11 @@
         <v>-3049918.69978359</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>3505</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29864,9 +30710,11 @@
         <v>-3054790.400283589</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>3506</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29901,9 +30749,11 @@
         <v>-3054790.400283589</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>3505</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29938,9 +30788,11 @@
         <v>-3056201.654295859</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>3505</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29975,9 +30827,11 @@
         <v>-3056848.198695859</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3500</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -30012,9 +30866,11 @@
         <v>-3056800.17009586</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>3497</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30049,9 +30905,11 @@
         <v>-3056800.17009586</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>3500</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30086,9 +30944,11 @@
         <v>-3056440.493895859</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>3500</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30123,9 +30983,11 @@
         <v>-3056503.693995859</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>3504</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30160,9 +31022,11 @@
         <v>-3056093.55789586</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>3503</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30197,9 +31061,11 @@
         <v>-3056336.967295859</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>3506</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30234,9 +31100,11 @@
         <v>-3051861.864595859</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>3501</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30308,9 +31176,11 @@
         <v>-3052623.534795859</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>3498</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30345,9 +31215,11 @@
         <v>-3052631.747095859</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>3498</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30382,9 +31254,11 @@
         <v>-3051919.991595859</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3497</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30604,9 +31478,11 @@
         <v>-3052523.79949586</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>3498</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30641,9 +31517,11 @@
         <v>-3052523.79949586</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3498</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30678,9 +31556,11 @@
         <v>-3042519.44449586</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>3498</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30715,9 +31595,11 @@
         <v>-3042788.42029586</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3500</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30752,9 +31634,11 @@
         <v>-3042823.46769586</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>3497</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30789,9 +31673,11 @@
         <v>-3040050.07379586</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>3496</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30826,9 +31712,11 @@
         <v>-3035935.79149586</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>3500</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -34341,9 +35229,11 @@
         <v>-3075006.8028772</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>3530</v>
+      </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
@@ -34378,9 +35268,11 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>3529</v>
+      </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -34415,9 +35307,11 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>3526</v>
+      </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -34452,9 +35346,11 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>3526</v>
+      </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -34489,9 +35385,11 @@
         <v>-3075024.2368772</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>3526</v>
+      </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -34526,9 +35424,11 @@
         <v>-3074959.4906772</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>3525</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -34563,9 +35463,11 @@
         <v>-3074959.4906772</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>3530</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -34600,9 +35502,11 @@
         <v>-3074959.4906772</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>3530</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -34637,9 +35541,11 @@
         <v>-3071637.7793772</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>3530</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -34674,9 +35580,11 @@
         <v>-3071637.7793772</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>3536</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -34896,9 +35804,11 @@
         <v>-3084079.4493772</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>3519</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34933,9 +35843,11 @@
         <v>-3084420.1096772</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>3519</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34970,9 +35882,11 @@
         <v>-3084086.2430772</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>3516</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -35007,9 +35921,11 @@
         <v>-3083512.2540772</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>3517</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -35044,9 +35960,11 @@
         <v>-3085590.3788772</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>3522</v>
+      </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -35081,9 +35999,11 @@
         <v>-3087525.4737772</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>3517</v>
+      </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -35118,9 +36038,11 @@
         <v>-3087806.6091772</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>3516</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -35155,9 +36077,11 @@
         <v>-3087683.7544772</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>3506</v>
+      </c>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -35192,9 +36116,11 @@
         <v>-3087680.7544772</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>3511</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
@@ -35229,9 +36155,11 @@
         <v>-3088071.5766772</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>3514</v>
+      </c>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -35266,9 +36194,11 @@
         <v>-3086901.7546772</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>3509</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35303,9 +36233,11 @@
         <v>-3087333.7546772</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>3513</v>
+      </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -35340,9 +36272,11 @@
         <v>-3087067.2316772</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>3506</v>
+      </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -35377,9 +36311,11 @@
         <v>-3088225.4281772</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>3509</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -35414,9 +36350,11 @@
         <v>-3087948.4281772</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>3506</v>
+      </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -35451,9 +36389,11 @@
         <v>-3086631.3089772</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>3507</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -35488,9 +36428,11 @@
         <v>-3086628.4600772</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>3508</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -39336,9 +40278,11 @@
         <v>-3090181.55063904</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>3485</v>
+      </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -39351,6 +40295,6 @@
       <c r="M1133" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest EOS.xlsx
+++ b/BackTest/2020-01-14 BackTest EOS.xlsx
@@ -451,7 +451,7 @@
         <v>7020.168651990003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3644.375651990003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3796.686151990003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>15236.40465199</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>29913.01965199001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>13982.95860310001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12456.0932031</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>6042.864903100005</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1934.030103100005</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-772.0460968999946</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-17986.2860969</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-14411.86369629999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-16401.92979629999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-7615.793996299994</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4127.673296299994</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-7160.481096299995</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-5154.413196299995</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-5134.413196299995</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-5480.160196299995</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3947.894296299994</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4007.163096299994</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-7552.614096299994</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4437.837396299994</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-8100.300496299994</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4735.620596299994</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2706.521396299994</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2706.521396299994</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-10528.45729629999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-9752.589796299993</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-9029.616896299993</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-9079.616896299993</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-8310.797896299993</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6234.861196299993</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-6389.025396299993</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6391.025396299993</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6387.833596299994</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6484.775796299994</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-11254.22691851999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-12503.25651851999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-15530.83831851999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-18886.66781851999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-20754.17941157999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-13380.02364491999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-13469.86954491999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-13350.08504492</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-13574.55514492</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14421.13454492</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-13421.13454492</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-14296.13444492</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-14580.42284492</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-15871.4661136</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-16378.5793136</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-19314.41601360001</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-18595.37501638001</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-17345.37501638001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-17471.58111638001</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-17558.18841638001</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-16953.25681638001</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-17139.85231638001</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-28326.54271638001</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-29895.07901638001</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-29965.07901638001</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-29865.07901638001</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-29865.30001638001</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-30033.70211638001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-27644.93741638001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-27725.17441638001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-26907.50691638001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-26813.40691638001</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-26411.76141638001</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-24955.26581638002</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-19132.82761638001</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-18875.52271638002</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-8886.293813600016</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-9178.698813600016</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-8268.336795290017</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-8368.336795290017</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>23912.54423750998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>33301.89723750998</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>32836.22783750998</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>25837.19443750998</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>24728.06223750998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>23098.92169503999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>22744.74419503998</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>23679.20859503999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>23005.80369503998</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>21620.21129503998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>21650.08129503998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>21818.68359503998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>22012.90049503998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>22288.90199503998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>22206.12009503998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>21300.12299503998</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>21313.79249503998</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>21283.79249503998</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>21284.15104857998</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>21283.96574857998</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>20303.54044857998</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>20185.42594857998</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>18542.67594857998</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>26610.03354857998</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>26749.91369503998</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>25836.45699503998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>26678.71169503998</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>28248.50456600998</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>27992.75096600998</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>28167.34146600998</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>31106.27536600998</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>30636.83477947998</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>29253.65329770998</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>29516.84308658998</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>25636.41738658998</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>25019.67588658998</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>32380.50002187998</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>39827.83852187998</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>38903.45332187998</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>36509.94012187998</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>34763.62652187997</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-13844.76171745003</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-16077.90351745003</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-16526.24031745003</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-20355.34551745003</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-18532.76881745003</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-18532.76881745003</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-20086.83191745003</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-18340.57301745003</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-27541.18579054003</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-27889.71389054003</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-27916.21789054003</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-32124.41149054003</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-32124.41149054003</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-32094.86549054003</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-32094.86549054003</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-29847.78999054003</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-30170.49969054003</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-30170.49969054003</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-28772.22899054003</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-22015.33379054003</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-23056.45679054003</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-16402.35009054003</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-12877.79359054003</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-14896.47699054003</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-10052.73619054003</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-5620.863390540028</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-6520.831190540029</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-13516.62009054003</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-12419.78479054003</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-12735.72409054003</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-19002.11719054003</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-19500.04439054003</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-19483.96209054003</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-19483.96209054003</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-21287.03489054003</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-24471.15029054003</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-24053.67319054003</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-25516.65009054003</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-25509.67009054003</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-25509.67009054003</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-28388.49579054003</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-26794.08295402003</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-26794.08295402003</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-30627.60975004003</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-42320.31955004003</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-42320.31955004003</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-46818.33225004003</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -23584,11 +23584,17 @@
         <v>-2886756.88957999</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3476</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +23623,17 @@
         <v>-2886769.069579991</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3484</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +23662,17 @@
         <v>-2886769.069579991</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3482</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +23705,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +23742,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +23779,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +23816,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +23853,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +23890,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +23927,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +23964,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24001,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24038,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24075,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24112,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24149,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24186,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24223,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24260,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24297,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24334,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24371,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24408,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24445,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24482,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24519,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24556,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +24593,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +24630,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +24667,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +24704,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +24741,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +24778,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +24815,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +24852,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +24889,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24776,7 +24926,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24809,7 +24963,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24842,7 +25000,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24875,7 +25037,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24908,7 +25074,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24941,7 +25111,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24974,7 +25148,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25007,7 +25185,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25218,17 @@
         <v>-2895211.04609989</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>3480</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25257,17 @@
         <v>-2897962.97239989</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3482</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25296,17 @@
         <v>-2898150.92099989</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>3479</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25335,17 @@
         <v>-2903120.66779989</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>3478</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25374,17 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3477</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25413,17 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>3478</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25452,17 @@
         <v>-2901658.77309989</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>3478</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25491,17 @@
         <v>-2903916.810699889</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>3478</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25530,17 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>3476</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25569,17 @@
         <v>-2898449.341199889</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>3478</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25608,17 @@
         <v>-2907534.114699889</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>3478</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25647,17 @@
         <v>-2918271.088999889</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>3475</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25686,17 @@
         <v>-2911459.323499889</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>3472</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25725,17 @@
         <v>-2909119.105199889</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>3479</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,11 +25764,17 @@
         <v>-2908106.977499889</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>3481</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25803,17 @@
         <v>-2908114.194899889</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>3484</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25842,17 @@
         <v>-2907945.793299889</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>3480</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25881,17 @@
         <v>-2907915.793299889</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>3481</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25920,17 @@
         <v>-2908452.401699889</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>3484</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25959,17 @@
         <v>-2908452.401699889</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>3482</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25998,17 @@
         <v>-2907054.070899889</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>3482</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25733,7 +26041,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25766,7 +26078,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25799,7 +26115,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25832,7 +26152,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25865,7 +26189,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25898,7 +26226,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25931,7 +26263,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +26300,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26337,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26374,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26411,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26448,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26485,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26522,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26559,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26596,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26633,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26670,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26707,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +26744,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26781,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +26818,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26855,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26892,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26929,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26966,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +27003,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +27040,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +27077,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +27114,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +27151,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +27188,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +27225,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +27262,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +27295,15 @@
         <v>-2893380.085088609</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +27332,15 @@
         <v>-2893511.008688609</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +27369,15 @@
         <v>-2892802.327288609</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +27406,15 @@
         <v>-2894352.075288609</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +27443,15 @@
         <v>-2889284.928088609</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27016,11 +27480,15 @@
         <v>-2892290.541488609</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27049,11 +27517,15 @@
         <v>-2891320.541588609</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27082,11 +27554,15 @@
         <v>-2892277.898188609</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27115,11 +27591,15 @@
         <v>-2899148.588588609</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27148,11 +27628,15 @@
         <v>-2905606.724588609</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27669,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27706,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27743,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27780,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27817,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27854,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27891,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27928,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27965,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +28002,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +28039,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +28076,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +28113,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +28150,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +28187,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +28224,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +28261,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +28298,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +28335,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +28372,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28409,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28446,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28483,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28520,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28557,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28594,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +28631,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28668,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28701,15 @@
         <v>-2926640.670680929</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28738,15 @@
         <v>-2926640.670680929</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28775,15 @@
         <v>-2926432.403180929</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28816,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28853,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28890,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28927,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28960,15 @@
         <v>-2926145.492380929</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +29001,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +29034,15 @@
         <v>-2929055.459280929</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +29071,15 @@
         <v>-2930084.831580929</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +29112,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +29149,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +29182,15 @@
         <v>-2931151.179180929</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +29219,15 @@
         <v>-2931009.294958459</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +29256,15 @@
         <v>-2934737.518258459</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +29293,15 @@
         <v>-2934442.252658459</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +29330,15 @@
         <v>-2982956.646458459</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +29367,15 @@
         <v>-2982956.646458459</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +29404,15 @@
         <v>-2992801.444958459</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29441,15 @@
         <v>-3003542.847058459</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +29478,15 @@
         <v>-2998073.938258459</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28831,11 +29515,15 @@
         <v>-3001797.739458459</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +29552,15 @@
         <v>-2994798.82735846</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29589,15 @@
         <v>-3001569.746058459</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +29626,15 @@
         <v>-3011621.44525846</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28963,11 +29663,15 @@
         <v>-3013877.36735846</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28996,11 +29700,15 @@
         <v>-3026105.36105846</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29737,15 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +29774,15 @@
         <v>-3041004.34655846</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +29811,15 @@
         <v>-3038257.59538359</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29848,15 @@
         <v>-3045203.23878359</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29889,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29926,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29963,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +30000,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +30037,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +30074,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +30111,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +30148,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +30185,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +30222,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +30259,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +30296,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +30333,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +30370,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +30407,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +30444,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +30481,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +30518,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +30555,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30592,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30629,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30666,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30703,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30740,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +30777,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +30814,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +30851,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30888,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30925,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30962,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30999,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +31036,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +31073,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +31110,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +31147,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +31184,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +31221,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +31258,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +31295,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +31332,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +31369,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +31406,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +31443,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +31480,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +31517,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +31554,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +31591,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +31628,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +31665,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +31702,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +31739,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +31776,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +31813,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +31850,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31887,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +31924,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31961,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +31998,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +32035,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +32072,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +32109,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +32146,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +32183,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +32220,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +32257,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +32294,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +32331,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +32368,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31405,11 +32401,15 @@
         <v>-3050634.442009749</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31438,11 +32438,15 @@
         <v>-3046870.93780975</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31471,11 +32475,15 @@
         <v>-3039456.731409749</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31504,11 +32512,15 @@
         <v>-3039480.903309749</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31537,11 +32549,15 @@
         <v>-3039480.903309749</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31570,11 +32586,15 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31603,11 +32623,15 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31636,11 +32660,15 @@
         <v>-3039822.34040975</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +32697,15 @@
         <v>-3047327.159609749</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31702,11 +32734,15 @@
         <v>-3046970.495109749</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +32771,15 @@
         <v>-3047422.397109749</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31768,11 +32808,15 @@
         <v>-3049840.131067719</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31801,11 +32845,15 @@
         <v>-3038253.730967719</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31834,11 +32882,15 @@
         <v>-3056547.392467719</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31867,11 +32919,15 @@
         <v>-3050765.052967719</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31900,11 +32956,15 @@
         <v>-3042924.520477199</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +32993,15 @@
         <v>-3042924.520477199</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31966,11 +33030,15 @@
         <v>-3041042.2396772</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -31999,11 +33067,15 @@
         <v>-3048706.6296772</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32032,11 +33104,15 @@
         <v>-3050258.7562772</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32065,11 +33141,15 @@
         <v>-3053000.7276772</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32098,11 +33178,15 @@
         <v>-3052350.0195772</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32131,11 +33215,15 @@
         <v>-3052350.0195772</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32164,11 +33252,15 @@
         <v>-3036496.3300772</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32197,11 +33289,15 @@
         <v>-3032257.3359772</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32230,11 +33326,15 @@
         <v>-3035848.6359772</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32263,11 +33363,15 @@
         <v>-3039142.3691772</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32296,11 +33400,15 @@
         <v>-3054416.1947772</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32329,11 +33437,15 @@
         <v>-3054416.1947772</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32362,11 +33474,15 @@
         <v>-3056263.235277201</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32399,7 +33515,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32432,7 +33552,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32465,7 +33589,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32498,7 +33626,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32531,7 +33663,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32564,7 +33700,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32597,7 +33737,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32630,7 +33774,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32663,7 +33811,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32692,11 +33844,15 @@
         <v>-3056971.498477201</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32725,11 +33881,15 @@
         <v>-3058501.180177201</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32758,11 +33918,15 @@
         <v>-3060590.7904772</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32795,7 +33959,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32828,7 +33996,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32861,7 +34033,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32890,11 +34066,15 @@
         <v>-3063231.6947772</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32923,11 +34103,15 @@
         <v>-3067099.7817772</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32956,11 +34140,15 @@
         <v>-3067099.7817772</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32989,11 +34177,15 @@
         <v>-3068189.1052772</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33022,11 +34214,15 @@
         <v>-3067763.5422772</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33055,11 +34251,15 @@
         <v>-3067904.5522772</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33088,11 +34288,15 @@
         <v>-3068404.5522772</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33121,11 +34325,15 @@
         <v>-3068511.2125772</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33154,11 +34362,15 @@
         <v>-3068788.2974772</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33187,11 +34399,15 @@
         <v>-3067417.9610772</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33224,7 +34440,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +34477,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33286,11 +34510,15 @@
         <v>-3074506.8028772</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33323,7 +34551,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33352,11 +34584,15 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33385,11 +34621,15 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33418,11 +34658,15 @@
         <v>-3075023.2368772</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33451,11 +34695,15 @@
         <v>-3075024.2368772</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33488,7 +34736,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33521,7 +34773,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33554,7 +34810,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +34847,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +34884,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33653,7 +34921,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33686,7 +34958,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +34995,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33752,7 +35032,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +35069,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +35106,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +35143,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +35180,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +35217,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +35254,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +35291,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +35328,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +35365,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +35402,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +35439,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +35476,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +35513,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +35550,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +35587,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +35624,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34309,15 +35657,13 @@
         <v>-3086631.3089772</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>3507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1028" t="n">
@@ -34348,11 +35694,9 @@
         <v>-3086628.4600772</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>3508</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -34387,11 +35731,9 @@
         <v>-3086528.4600772</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>3510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -34426,11 +35768,9 @@
         <v>-3086528.4600772</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -34465,11 +35805,9 @@
         <v>-3086894.209077199</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1032" t="n">
-        <v>3514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
@@ -34504,11 +35842,9 @@
         <v>-3086895.3090772</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>3513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -34543,11 +35879,9 @@
         <v>-3086317.1340772</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>3510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -38208,11 +39542,9 @@
         <v>-3090181.55063904</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>3485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
